--- a/biology/Botanique/Alstroemeria_ligtu/Alstroemeria_ligtu.xlsx
+++ b/biology/Botanique/Alstroemeria_ligtu/Alstroemeria_ligtu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alstroemeria ligtu est une espèce de plantes à fleurs de la famille des Alstroemeriaceae selon la classification phylogénétique et des Liliaceae selon la classification classique de Cronquist (1981)[1]. Plante herbacée vivace originaire du Chili et du Pérou elle prospère à proximité des ruisseaux[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alstroemeria ligtu est une espèce de plantes à fleurs de la famille des Alstroemeriaceae selon la classification phylogénétique et des Liliaceae selon la classification classique de Cronquist (1981). Plante herbacée vivace originaire du Chili et du Pérou elle prospère à proximité des ruisseaux.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une fécule appelée chuno est extraite des tubercules pour faire des bouillies et des potages. Il existe quelques cultivars. D'autres espèces proches sont aussi consommées au Chili et au Pérou comme Alstroemeria haemantha, Alstroemeria revoluta, Alstroemeria versicolor[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une fécule appelée chuno est extraite des tubercules pour faire des bouillies et des potages. Il existe quelques cultivars. D'autres espèces proches sont aussi consommées au Chili et au Pérou comme Alstroemeria haemantha, Alstroemeria revoluta, Alstroemeria versicolor.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 sept. 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 sept. 2011) :
 Alstroemeria ligtu subsp. incarnata Ehr.Bayer
 Alstroemeria ligtu subsp. ligtu
 Alstroemeria ligtu subsp. simsii (Spreng.) Ehr.Bayer
